--- a/Figures and tables/Table 1 Basic and derived phenotypes.xlsx
+++ b/Figures and tables/Table 1 Basic and derived phenotypes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\HKT\Cat Does Plant\Figures and tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1914C5-09D9-451D-968A-661A07ADEFE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5E200D-9EBB-48DA-B245-0FB46678DFD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41922592-C118-4DAE-A0F6-CE58A378D91A}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
-  <si>
-    <t>Basic Traits</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Root weight</t>
   </si>
@@ -75,12 +72,6 @@
     <t>Seed property</t>
   </si>
   <si>
-    <t>Root weight per unit length</t>
-  </si>
-  <si>
-    <t>Shoot weight per unit length</t>
-  </si>
-  <si>
     <t>Lost root length</t>
   </si>
   <si>
@@ -132,21 +123,6 @@
     <t xml:space="preserve">SES </t>
   </si>
   <si>
-    <t>SES score</t>
-  </si>
-  <si>
-    <t>Seed length without husk</t>
-  </si>
-  <si>
-    <t>Seed height without husk</t>
-  </si>
-  <si>
-    <t>Seed width without husk</t>
-  </si>
-  <si>
-    <t>Seed weight without husk</t>
-  </si>
-  <si>
     <t>Seed density</t>
   </si>
   <si>
@@ -169,6 +145,36 @@
   </si>
   <si>
     <t>Shoot weight per unit length in control condition - Shoot weight per unit length in stress condition</t>
+  </si>
+  <si>
+    <t>Heritability of basic traits</t>
+  </si>
+  <si>
+    <t>Basic traits</t>
+  </si>
+  <si>
+    <t>Heritability of derived traits</t>
+  </si>
+  <si>
+    <t>Root weight per unit length**</t>
+  </si>
+  <si>
+    <t>Shoot weight per unit length**</t>
+  </si>
+  <si>
+    <t>SES score*</t>
+  </si>
+  <si>
+    <t>Seed length without husk*</t>
+  </si>
+  <si>
+    <t>Seed height without husk*</t>
+  </si>
+  <si>
+    <t>Seed width without husk*</t>
+  </si>
+  <si>
+    <t>Seed weight without husk*</t>
   </si>
 </sst>
 </file>
@@ -204,8 +210,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,244 +527,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31136BD7-EC2B-4D89-ABE9-D145F02A99B0}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2">
+        <v>0.51993520159155204</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>2.0508891064673601E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.59861623949474596</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>6.35025637610412E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.53847689056510095</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F4">
+        <v>0.18663664589714199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.68038048108804505</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>8.47037040854654E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>0.44144337782751902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>0.23415118100891399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>0.12827545517165501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <v>2.1422646454644201E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1.5590152198574399E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>2.9297234334126301E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.04989427154246E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0.299207727485436</v>
+      </c>
+      <c r="D14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>0.17712304167797799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>0.27386803088549</v>
+      </c>
+      <c r="D15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15">
+        <v>0.181277872957023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>0.37256388999568402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C17">
+        <v>0.96830659415570097</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C18">
+        <v>0.79989182365242595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>0.960490333852418</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
+        <v>0.84672655956506604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>0.998161256462752</v>
+      </c>
+      <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="E20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
+      <c r="F20">
+        <v>8.5070382933131503E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Figures and tables/Table 1 Basic and derived phenotypes.xlsx
+++ b/Figures and tables/Table 1 Basic and derived phenotypes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\HKT\Cat Does Plant\Figures and tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Revision\Cat Does Plant\Figures and tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5E200D-9EBB-48DA-B245-0FB46678DFD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB746DD3-D42F-4A59-A509-9A1115771911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41922592-C118-4DAE-A0F6-CE58A378D91A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{41922592-C118-4DAE-A0F6-CE58A378D91A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Root weight</t>
   </si>
@@ -69,9 +69,6 @@
     <t xml:space="preserve">Chlorophyll content </t>
   </si>
   <si>
-    <t>Seed property</t>
-  </si>
-  <si>
     <t>Lost root length</t>
   </si>
   <si>
@@ -123,18 +120,6 @@
     <t xml:space="preserve">SES </t>
   </si>
   <si>
-    <t>Seed density</t>
-  </si>
-  <si>
-    <t>Cubic seed volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seed length without husk * Seed height without husk * Seed width without husk </t>
-  </si>
-  <si>
-    <t>Seed weight / Cubic seed volume</t>
-  </si>
-  <si>
     <t>Chlorophyll A content in control condition - Chlorophyll A content in stress condition</t>
   </si>
   <si>
@@ -163,18 +148,6 @@
   </si>
   <si>
     <t>SES score*</t>
-  </si>
-  <si>
-    <t>Seed length without husk*</t>
-  </si>
-  <si>
-    <t>Seed height without husk*</t>
-  </si>
-  <si>
-    <t>Seed width without husk*</t>
-  </si>
-  <si>
-    <t>Seed weight without husk*</t>
   </si>
 </sst>
 </file>
@@ -527,43 +500,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31136BD7-EC2B-4D89-ABE9-D145F02A99B0}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -574,16 +547,16 @@
         <v>0.51993520159155204</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>2.0508891064673601E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -594,16 +567,16 @@
         <v>0.59861623949474596</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>6.35025637610412E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -614,16 +587,16 @@
         <v>0.53847689056510095</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>0.18663664589714199</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -634,72 +607,72 @@
         <v>0.68038048108804505</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>8.47037040854654E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>0.44144337782751902</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>0.23415118100891399</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>0.12827545517165501</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>2.1422646454644201E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -710,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -721,7 +694,7 @@
         <v>1.5590152198574399E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -732,7 +705,7 @@
         <v>2.9297234334126301E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -743,7 +716,7 @@
         <v>1.04989427154246E-9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -754,16 +727,16 @@
         <v>0.299207727485436</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F14">
         <v>0.17712304167797799</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -774,86 +747,24 @@
         <v>0.27386803088549</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F15">
         <v>0.181277872957023</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>0.37256388999568402</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17">
-        <v>0.96830659415570097</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18">
-        <v>0.79989182365242595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19">
-        <v>0.960490333852418</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19">
-        <v>0.84672655956506604</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20">
-        <v>0.998161256462752</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20">
-        <v>8.5070382933131503E-2</v>
       </c>
     </row>
   </sheetData>
